--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -12,37 +12,6 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -54,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="233">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -482,26 +451,6 @@
     <t xml:space="preserve">Добрый - Яблоко - 0.33л/0.2л/Рич - Яблоко PET - 0.3л ПЭТ/Апельсин - 0.2л стекло</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Dobriy - Apple - 0.33L, Dobriy - Apple - 0.2L, Rich Apple 0.3 PET,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Rich - Orange - 0.2L Glass</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">4607174579309, 4607042430619, 4607042436086, 4650075420362</t>
   </si>
   <si>
@@ -612,7 +561,7 @@
     <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler:  w/o other products</t>
+    <t xml:space="preserve">Cooler: w/o other products</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Без чужой продукции</t>
@@ -709,7 +658,7 @@
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can , Coca Cola Cup  0.3, Coca Cola Bottle, Coca Cola Cup 0.5, Coca Cola Cup  0.4, Coca Cola Zero Bottle</t>
+    <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can , Coca Cola Cup 0.3, Coca Cola Bottle, Coca Cola Cup 0.5, Coca Cola Cup 0.4, Coca Cola Zero Bottle</t>
   </si>
   <si>
     <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112</t>
@@ -835,7 +784,7 @@
     <numFmt numFmtId="170" formatCode="0%"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -859,13 +808,13 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -877,14 +826,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -959,84 +908,88 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,180 +1015,174 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:48"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL4" activeCellId="0" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="99.6194331983806"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="120.724696356275"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="65.4493927125506"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="1023" min="40" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="59.080971659919"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="92"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="106.48987854251"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="53.0971659919028"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.2955465587045"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="26.4817813765182"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6113360323887"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
@@ -1415,10 +1362,10 @@
       <c r="AK4" s="8" t="n">
         <v>311</v>
       </c>
-      <c r="AL4" s="9" t="n">
+      <c r="AL4" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AM4" s="9" t="n">
+      <c r="AM4" s="5" t="n">
         <v>310</v>
       </c>
     </row>
@@ -1481,7 +1428,7 @@
       <c r="AL5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="9" t="n">
+      <c r="AM5" s="5" t="n">
         <v>310</v>
       </c>
     </row>
@@ -1544,7 +1491,7 @@
       <c r="AL6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AM6" s="9"/>
+      <c r="AM6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -1611,7 +1558,9 @@
       <c r="AL7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AM7" s="5"/>
+      <c r="AM7" s="5" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -2176,7 +2125,9 @@
       <c r="AL14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AM14" s="5"/>
+      <c r="AM14" s="5" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
@@ -2409,7 +2360,9 @@
       <c r="AL17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AM17" s="5"/>
+      <c r="AM17" s="5" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -2642,7 +2595,9 @@
       <c r="AL20" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AM20" s="5"/>
+      <c r="AM20" s="5" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
@@ -2878,7 +2833,7 @@
       <c r="AE23" s="13" t="n">
         <v>0.0169092</v>
       </c>
-      <c r="AF23" s="9"/>
+      <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -2888,7 +2843,7 @@
       <c r="AK23" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="AL23" s="9"/>
+      <c r="AL23" s="5"/>
       <c r="AM23" s="5" t="n">
         <v>14</v>
       </c>
@@ -3124,7 +3079,9 @@
       <c r="AL26" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AM26" s="5"/>
+      <c r="AM26" s="5" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -3225,7 +3182,7 @@
       <c r="E28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -3240,11 +3197,9 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="5"/>
+      <c r="N28" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -3309,10 +3264,10 @@
         <v>89</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>65</v>
@@ -3322,7 +3277,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N29" s="8" t="n">
         <v>4650075420980</v>
@@ -3390,10 +3345,10 @@
         <v>89</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>65</v>
@@ -3405,10 +3360,10 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -3473,10 +3428,10 @@
         <v>89</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>65</v>
@@ -3488,7 +3443,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N31" s="8" t="n">
         <v>4607174579729</v>
@@ -3553,16 +3508,16 @@
         <v>41</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -3573,7 +3528,7 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -3590,7 +3545,7 @@
         <v>60</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE32" s="15" t="n">
         <v>0.08</v>
@@ -3598,7 +3553,7 @@
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5" t="n">
@@ -3608,9 +3563,11 @@
         <v>26</v>
       </c>
       <c r="AL32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM32" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="AM32" s="5" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
@@ -3626,16 +3583,16 @@
         <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="n">
@@ -3644,23 +3601,23 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
@@ -3679,7 +3636,7 @@
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5" t="n">
@@ -3707,16 +3664,16 @@
         <v>41</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5" t="n">
@@ -3725,23 +3682,23 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N34" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -3786,16 +3743,16 @@
         <v>41</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="n">
@@ -3804,26 +3761,26 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="9" t="s">
-        <v>166</v>
+      <c r="N35" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="9"/>
+      <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X35" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y35" s="9"/>
+      <c r="X35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
@@ -3839,10 +3796,10 @@
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ35" s="5" t="n">
         <v>2</v>
@@ -3852,7 +3809,7 @@
       </c>
       <c r="AL35" s="5"/>
       <c r="AM35" s="16" t="n">
-        <v>37</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3869,16 +3826,16 @@
         <v>41</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5" t="n">
@@ -3887,21 +3844,21 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
@@ -3912,7 +3869,7 @@
         <v>60</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE36" s="15" t="n">
         <v>0.04</v>
@@ -3920,10 +3877,10 @@
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ36" s="5" t="n">
         <v>2</v>
@@ -3933,7 +3890,7 @@
       </c>
       <c r="AL36" s="5"/>
       <c r="AM36" s="16" t="n">
-        <v>37</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3950,16 +3907,16 @@
         <v>41</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -3970,21 +3927,21 @@
         <v>15</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
@@ -4003,10 +3960,10 @@
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ37" s="5" t="n">
         <v>2</v>
@@ -4016,7 +3973,7 @@
       </c>
       <c r="AL37" s="5"/>
       <c r="AM37" s="16" t="n">
-        <v>37</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4033,13 +3990,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>65</v>
@@ -4051,32 +4008,32 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="O38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R38" s="9" t="s">
-        <v>183</v>
+      <c r="R38" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="X38" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
@@ -4088,7 +4045,7 @@
       <c r="AD38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE38" s="18" t="n">
+      <c r="AE38" s="19" t="n">
         <v>0.05</v>
       </c>
       <c r="AF38" s="5"/>
@@ -4102,7 +4059,9 @@
         <v>32</v>
       </c>
       <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
+      <c r="AM38" s="5" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
@@ -4118,13 +4077,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>65</v>
@@ -4136,34 +4095,34 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S39" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T39" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
@@ -4175,7 +4134,7 @@
       <c r="AD39" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE39" s="19" t="n">
+      <c r="AE39" s="20" t="n">
         <v>0.07</v>
       </c>
       <c r="AF39" s="5"/>
@@ -4189,7 +4148,9 @@
         <v>33</v>
       </c>
       <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
+      <c r="AM39" s="5" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
@@ -4205,16 +4166,16 @@
         <v>41</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="n">
@@ -4227,7 +4188,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
@@ -4235,10 +4196,10 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="X40" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
@@ -4250,7 +4211,7 @@
       <c r="AD40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE40" s="19" t="n">
+      <c r="AE40" s="20" t="n">
         <v>0.28</v>
       </c>
       <c r="AF40" s="5"/>
@@ -4264,9 +4225,11 @@
         <v>34</v>
       </c>
       <c r="AL40" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM40" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="AM40" s="5" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
@@ -4282,13 +4245,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>65</v>
@@ -4299,14 +4262,14 @@
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="O41" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5" t="s">
@@ -4315,17 +4278,17 @@
       <c r="R41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5" t="s">
-        <v>203</v>
-      </c>
+      <c r="S41" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="X41" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
@@ -4337,7 +4300,7 @@
       <c r="AD41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE41" s="19" t="n">
+      <c r="AE41" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AF41" s="5"/>
@@ -4369,16 +4332,16 @@
         <v>41</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5" t="n">
@@ -4387,7 +4350,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N42" s="5" t="n">
         <v>5000034</v>
@@ -4405,10 +4368,10 @@
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="X42" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
@@ -4426,7 +4389,7 @@
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5" t="n">
@@ -4451,22 +4414,22 @@
         <v>40</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="F43" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="G43" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="H43" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -4477,7 +4440,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -4501,7 +4464,7 @@
         <v>37</v>
       </c>
       <c r="AL43" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM43" s="5"/>
     </row>
@@ -4516,35 +4479,35 @@
         <v>40</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F44" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="H44" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -4583,35 +4546,35 @@
         <v>40</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>223</v>
-      </c>
       <c r="H45" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
@@ -4650,35 +4613,35 @@
         <v>40</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E46" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>227</v>
-      </c>
       <c r="H46" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -4717,35 +4680,35 @@
         <v>40</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F47" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>227</v>
-      </c>
       <c r="H47" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -4784,35 +4747,35 @@
         <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G48" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="I48" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -4836,15 +4799,15 @@
         <v>42</v>
       </c>
       <c r="AL48" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM48" s="9"/>
+        <v>232</v>
+      </c>
+      <c r="AM48" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="231">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -582,6 +582,9 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
+    <t xml:space="preserve">DUMMY</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of SKUs/Number of cooler Doors </t>
   </si>
   <si>
@@ -622,12 +625,6 @@
   </si>
   <si>
     <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola, Bonaqua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pet, glass, can, PET, GLASS, CAN</t>
   </si>
   <si>
     <t xml:space="preserve">Cash Zone</t>
@@ -833,7 +830,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,8 +845,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -862,12 +859,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -993,7 +984,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1011,7 +1002,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3300"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1045,7 +1036,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1058,7 +1049,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1081,46 +1072,46 @@
   </sheetPr>
   <dimension ref="A1:AM48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O31" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S45" activeCellId="0" sqref="S45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="93.6234817813765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.6275303643725"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.3724696356275"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="108.404858299595"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="53.9878542510122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.8421052631579"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
@@ -3977,7 +3968,9 @@
       <c r="H37" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="16" t="s">
+        <v>175</v>
+      </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="n">
         <v>1</v>
@@ -4049,13 +4042,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>65</v>
@@ -4067,32 +4060,32 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>68</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X38" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -4136,13 +4129,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>65</v>
@@ -4160,28 +4153,22 @@
         <v>153</v>
       </c>
       <c r="O39" s="7"/>
-      <c r="P39" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="P39" s="7"/>
       <c r="Q39" s="7" t="s">
         <v>68</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="S39" s="17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X39" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -4225,16 +4212,16 @@
         <v>41</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="n">
@@ -4247,7 +4234,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -4255,10 +4242,10 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -4284,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="AL40" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM40" s="7" t="n">
         <v>400</v>
@@ -4304,13 +4291,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>65</v>
@@ -4322,13 +4309,13 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="N41" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="N41" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="O41" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7" t="s">
@@ -4338,16 +4325,16 @@
         <v>69</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -4389,16 +4376,16 @@
         <v>41</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="n">
@@ -4407,7 +4394,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N42" s="7" t="n">
         <v>5000034</v>
@@ -4425,10 +4412,10 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
@@ -4444,7 +4431,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7" t="n">
@@ -4469,22 +4456,22 @@
         <v>40</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="G43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="H43" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -4495,7 +4482,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4519,7 +4506,7 @@
         <v>37</v>
       </c>
       <c r="AL43" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM43" s="7"/>
     </row>
@@ -4534,35 +4521,35 @@
         <v>40</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="H44" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="I44" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
@@ -4601,35 +4588,35 @@
         <v>40</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F45" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>221</v>
-      </c>
       <c r="H45" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -4668,35 +4655,35 @@
         <v>40</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E46" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="G46" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>225</v>
-      </c>
       <c r="H46" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
@@ -4735,35 +4722,35 @@
         <v>40</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F47" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>225</v>
-      </c>
       <c r="H47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4802,35 +4789,35 @@
         <v>40</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G48" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="I48" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -4854,7 +4841,7 @@
         <v>42</v>
       </c>
       <c r="AL48" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM48" s="7"/>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="231">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -286,7 +287,7 @@
     <t xml:space="preserve">Sprite - 0.5L, Sprite - 0.25L Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">54491069, 54490970</t>
+    <t xml:space="preserve">54491069, 54490970, 50112135</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange - 0.5L/Fanta Orange - 0.33L Glass</t>
@@ -298,7 +299,7 @@
     <t xml:space="preserve">Fanta Orange - 0.5L, Fanta Orange - 0.25L Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">40822938, 40822419</t>
+    <t xml:space="preserve">40822938, 40822419, 87126860</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
@@ -407,7 +408,7 @@
     <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L, Fuze Lemon-Lemongrass - 0.33L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000236777, 5449000235947</t>
+    <t xml:space="preserve">5449000045720, 5449000236777, 5449000189301, 5449000235947</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
@@ -416,6 +417,9 @@
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
   </si>
   <si>
@@ -426,6 +430,9 @@
   </si>
   <si>
     <t xml:space="preserve">Фьюз Персик - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189332, 5449000235770</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Availability</t>
@@ -658,10 +665,7 @@
     <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can , Coca Cola Cup 0.3, Coca Cola Bottle, Coca Cola Cup 0.5, Coca Cola Cup 0.4, Coca Cola Zero Bottle</t>
   </si>
   <si>
-    <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25, 0.33, 0.4, 0.5</t>
+    <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112,5000101, 5000102, A5B10119, 5000006, 5000009</t>
   </si>
   <si>
     <t xml:space="preserve">Combo: Food</t>
@@ -750,9 +754,6 @@
   </si>
   <si>
     <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">EO
@@ -771,13 +772,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -845,8 +847,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -915,7 +917,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -971,6 +973,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1036,8 +1042,8 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF66FFFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1072,47 +1078,49 @@
   </sheetPr>
   <dimension ref="A1:AM48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H48" activeCellId="0" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.6275303643725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.3724696356275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="59.663967611336"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="92.7651821862348"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.8421052631579"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="107.441295546559"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="79.1619433198381"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -2853,8 +2861,8 @@
       <c r="M23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="11" t="n">
-        <v>5449000259455</v>
+      <c r="N23" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -2919,10 +2927,10 @@
         <v>89</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>65</v>
@@ -2934,7 +2942,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N24" s="11" t="n">
         <v>5449000233615</v>
@@ -3002,10 +3010,10 @@
         <v>89</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>65</v>
@@ -3017,10 +3025,10 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="N25" s="11" t="n">
-        <v>5449000235770</v>
+        <v>124</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -3085,10 +3093,10 @@
         <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>59</v>
@@ -3131,7 +3139,7 @@
         <v>20</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AM26" s="7" t="n">
         <v>300</v>
@@ -3154,10 +3162,10 @@
         <v>89</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>65</v>
@@ -3169,7 +3177,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N27" s="11" t="n">
         <v>4607174577787</v>
@@ -3237,10 +3245,10 @@
         <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>65</v>
@@ -3253,7 +3261,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -3318,10 +3326,10 @@
         <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>65</v>
@@ -3331,7 +3339,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N29" s="11" t="n">
         <v>4650075420980</v>
@@ -3399,10 +3407,10 @@
         <v>89</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>65</v>
@@ -3414,10 +3422,10 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -3482,10 +3490,10 @@
         <v>89</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>65</v>
@@ -3497,7 +3505,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N31" s="11" t="n">
         <v>4607174579729</v>
@@ -3562,16 +3570,16 @@
         <v>41</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -3582,7 +3590,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -3599,7 +3607,7 @@
         <v>60</v>
       </c>
       <c r="AD32" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AE32" s="9" t="n">
         <v>0.08</v>
@@ -3607,7 +3615,7 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7" t="n">
@@ -3617,7 +3625,7 @@
         <v>26</v>
       </c>
       <c r="AL32" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM32" s="7" t="n">
         <v>311</v>
@@ -3637,16 +3645,16 @@
         <v>41</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="n">
@@ -3655,23 +3663,23 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -3688,7 +3696,7 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AI33" s="7"/>
       <c r="AJ33" s="7" t="n">
@@ -3716,16 +3724,16 @@
         <v>41</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="n">
@@ -3734,23 +3742,23 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -3793,16 +3801,16 @@
         <v>41</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="n">
@@ -3812,13 +3820,13 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -3828,7 +3836,7 @@
         <v>70</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
@@ -3846,10 +3854,10 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AI35" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ35" s="7" t="n">
         <v>2</v>
@@ -3858,7 +3866,7 @@
         <v>29</v>
       </c>
       <c r="AL35" s="7"/>
-      <c r="AM35" s="14" t="n">
+      <c r="AM35" s="15" t="n">
         <v>312</v>
       </c>
     </row>
@@ -3876,16 +3884,16 @@
         <v>41</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="n">
@@ -3894,21 +3902,21 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -3919,7 +3927,7 @@
         <v>60</v>
       </c>
       <c r="AD36" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AE36" s="9" t="n">
         <v>0.04</v>
@@ -3927,10 +3935,10 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ36" s="7" t="n">
         <v>2</v>
@@ -3939,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="AL36" s="7"/>
-      <c r="AM36" s="14" t="n">
+      <c r="AM36" s="15" t="n">
         <v>312</v>
       </c>
     </row>
@@ -3957,19 +3965,19 @@
         <v>41</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I37" s="16" t="s">
         <v>175</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="n">
@@ -3979,21 +3987,21 @@
         <v>15</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
@@ -4012,10 +4020,10 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ37" s="7" t="n">
         <v>2</v>
@@ -4024,7 +4032,7 @@
         <v>31</v>
       </c>
       <c r="AL37" s="7"/>
-      <c r="AM37" s="14" t="n">
+      <c r="AM37" s="15" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4042,13 +4050,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>65</v>
@@ -4060,32 +4068,32 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>68</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X38" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -4129,13 +4137,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>65</v>
@@ -4147,10 +4155,10 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -4158,17 +4166,17 @@
         <v>68</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
+        <v>156</v>
+      </c>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X39" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -4212,16 +4220,16 @@
         <v>41</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="n">
@@ -4234,7 +4242,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -4242,10 +4250,10 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -4271,7 +4279,7 @@
         <v>34</v>
       </c>
       <c r="AL40" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM40" s="7" t="n">
         <v>400</v>
@@ -4291,13 +4299,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>65</v>
@@ -4308,14 +4316,14 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="15" t="s">
-        <v>198</v>
+      <c r="M41" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7" t="s">
@@ -4324,17 +4332,15 @@
       <c r="R41" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="S41" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="S41" s="16"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -4376,16 +4382,16 @@
         <v>41</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="n">
@@ -4394,7 +4400,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N42" s="7" t="n">
         <v>5000034</v>
@@ -4412,10 +4418,10 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
@@ -4431,7 +4437,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7" t="n">
@@ -4456,22 +4462,22 @@
         <v>40</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="F43" s="15" t="s">
         <v>209</v>
       </c>
+      <c r="G43" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="H43" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -4482,7 +4488,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4506,7 +4512,7 @@
         <v>37</v>
       </c>
       <c r="AL43" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM43" s="7"/>
     </row>
@@ -4521,35 +4527,35 @@
         <v>40</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G44" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>215</v>
       </c>
+      <c r="G44" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="H44" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
@@ -4588,35 +4594,35 @@
         <v>40</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G45" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>220</v>
       </c>
+      <c r="G45" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="H45" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -4655,35 +4661,35 @@
         <v>40</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="F46" s="15" t="s">
         <v>224</v>
       </c>
+      <c r="G46" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="H46" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
@@ -4722,35 +4728,35 @@
         <v>40</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G47" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>224</v>
       </c>
+      <c r="G47" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="H47" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4789,22 +4795,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>227</v>
+        <v>192</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -4817,7 +4823,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1089,49 +1090,49 @@
   </sheetPr>
   <dimension ref="A1:AM48"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="93.6234817813765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="108.404858299595"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.2307692307692"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.8744939271255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -3348,7 +3349,9 @@
         <v>65</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="234">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -772,6 +773,12 @@
 34
 37
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -929,7 +936,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,6 +1011,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1088,51 +1107,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="49:49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="95.2267206477733"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.8744939271255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="110.331983805668"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -4869,6 +4888,68 @@
       </c>
       <c r="AM48" s="6"/>
     </row>
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="18" t="n">
+        <v>401</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AMJ49" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -19,7 +19,6 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="232">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -773,12 +772,6 @@
 34
 37
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -936,7 +929,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1011,18 +1004,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1107,51 +1088,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:49"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="49:49"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="95.2267206477733"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="110.331983805668"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.8744939271255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -4888,68 +4869,6 @@
       </c>
       <c r="AM48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="n">
-        <v>401</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
-      <c r="AC49" s="18"/>
-      <c r="AD49" s="18"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
-      <c r="AI49" s="18"/>
-      <c r="AJ49" s="18"/>
-      <c r="AK49" s="18" t="n">
-        <v>401</v>
-      </c>
-      <c r="AL49" s="18"/>
-      <c r="AM49" s="18"/>
-      <c r="AMJ49" s="0"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="235">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -773,12 +774,21 @@
 37
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
@@ -786,6 +796,7 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -929,7 +940,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,6 +1015,22 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1088,51 +1115,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AM48" activeCellId="0" sqref="AM48:AM49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="95.2267206477733"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="80.8744939271255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="110.331983805668"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -4869,6 +4896,68 @@
       </c>
       <c r="AM48" s="6"/>
     </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>401</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+      <c r="AMJ49" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -11,15 +11,7 @@
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AM$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="242">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -468,7 +460,7 @@
     <t xml:space="preserve">Dobriy - Apple - 0.33L, Dobriy - Apple  - 0.2L, Rich Apple 0.3 PET, Orange - 0.2L Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">4607174579309, 4607042430619, 4607042436086, 4650075420362</t>
+    <t xml:space="preserve">4607174579309, 4607042430619, 4650075421000, 4650075420362</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
@@ -486,7 +478,7 @@
     <t xml:space="preserve">Dobriy - Multifruit - 0.33L, Dobriy - Multifruit - 0.2L, Rich - Orange - 0.3L PET, Rich - Apple - 0.2L Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">4607174579286, 4607042430565, 4607042436079, 4650075420386</t>
+    <t xml:space="preserve">4607174579286, 4607042430565, 4650075421024, 4650075420386</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
@@ -672,7 +664,7 @@
     <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can , Coca Cola Cup 0.3, Coca Cola Bottle, Coca Cola Cup 0.5, Coca Cola Cup 0.4, Coca Cola Zero Bottle</t>
   </si>
   <si>
-    <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112, 5000101, 5000102, A5B10119, 5000006, 5000009</t>
+    <t xml:space="preserve">5050570, 50111114, 5000005, 5000004, 50111112, 5000101, 5000102, A5B10119, 5000006, 5000009, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
   </si>
   <si>
     <t xml:space="preserve">Combo: Food</t>
@@ -687,6 +679,9 @@
     <t xml:space="preserve">food</t>
   </si>
   <si>
+    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food should be near Image</t>
   </si>
   <si>
@@ -702,7 +697,7 @@
     <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
   </si>
   <si>
-    <t xml:space="preserve">sum of KPI scores</t>
+    <t xml:space="preserve">sum of atomic scores</t>
   </si>
   <si>
     <t xml:space="preserve">Decimal.2</t>
@@ -746,33 +741,50 @@
     <t xml:space="preserve">Local 21</t>
   </si>
   <si>
+    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTMove
+No_O_A</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRIORITY_OCC</t>
   </si>
   <si>
-    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTMove
-No_OTMove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO_InforLu
-No_EO_InforLu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
   </si>
   <si>
     <t xml:space="preserve">EO
-No_EO</t>
+No_O_A</t>
   </si>
   <si>
     <t xml:space="preserve">29
+30
+31
 32
 33
-34
-37
-</t>
+34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">PLAN</t>
@@ -849,7 +861,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,7 +877,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFF8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -882,12 +900,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -906,6 +924,13 @@
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -940,13 +965,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1001,11 +1022,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1013,7 +1034,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1021,12 +1058,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1084,7 +1133,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1117,3849 +1166,3854 @@
   </sheetPr>
   <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="AM48" activeCellId="0" sqref="AM48:AM49"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="95.2267206477733"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="110.331983805668"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0566801619433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.4291497975709"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="98.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.2914979757085"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5910931174089"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="112.931174089069"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="72.2024291497976"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6599190283401"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.2914979757085"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.8866396761134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.1457489878543"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.30364372469636"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.3684210526316"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.8947368421053"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.1943319838057"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="23.0728744939271"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.3157894736842"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.0121457489879"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.8097165991903"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.8178137651822"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.2631578947368"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="61.663967611336"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.9716599190283"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.86234817813765"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="10" t="n">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="6"/>
+      <c r="AM2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="10" t="n">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="9" t="n">
         <v>310</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="6"/>
+      <c r="AM3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="10" t="n">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="9" t="n">
         <v>311</v>
       </c>
-      <c r="AL4" s="6" t="n">
+      <c r="AL4" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AM4" s="6" t="n">
+      <c r="AM4" s="5" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="10" t="n">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="9" t="n">
         <v>312</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AL5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="6" t="n">
+      <c r="AM5" s="5" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="10" t="n">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AK6" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AL6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AM6" s="6"/>
+      <c r="AM6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AD7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6" t="n">
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK7" s="6" t="n">
+      <c r="AK7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AL7" s="11" t="s">
+      <c r="AL7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AM7" s="6" t="n">
+      <c r="AM7" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="n">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="6" t="s">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6" t="s">
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AD8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" s="8" t="n">
+      <c r="AE8" s="7" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6" t="n">
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" s="6" t="n">
+      <c r="AK8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6" t="n">
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="n">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="6" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6" t="s">
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6" t="s">
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" s="8" t="n">
+      <c r="AE9" s="7" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6" t="n">
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" s="6" t="n">
+      <c r="AK9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6" t="n">
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="n">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="6" t="s">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6" t="s">
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6" t="s">
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AD10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE10" s="8" t="n">
+      <c r="AE10" s="7" t="n">
         <v>0.031006</v>
       </c>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6" t="n">
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="6" t="n">
+      <c r="AK10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6" t="n">
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="n">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6" t="s">
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6" t="s">
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6" t="s">
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AD11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE11" s="8" t="n">
+      <c r="AE11" s="7" t="n">
         <v>0.03037</v>
       </c>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6" t="n">
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="6" t="n">
+      <c r="AK11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6" t="n">
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="n">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="N12" s="9" t="n">
         <v>5449000214744</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6" t="s">
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE12" s="8" t="n">
+      <c r="AE12" s="7" t="n">
         <v>0.016902</v>
       </c>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6" t="n">
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK12" s="6" t="n">
+      <c r="AK12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6" t="n">
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="n">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="10" t="n">
+      <c r="N13" s="9" t="n">
         <v>5449000172228</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6" t="s">
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6" t="s">
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AD13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE13" s="8" t="n">
+      <c r="AE13" s="7" t="n">
         <v>0.007696</v>
       </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6" t="n">
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK13" s="6" t="n">
+      <c r="AK13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6" t="n">
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AD14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6" t="n">
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK14" s="6" t="n">
+      <c r="AK14" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="AL14" s="11" t="s">
+      <c r="AL14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AM14" s="6" t="n">
+      <c r="AM14" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="n">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6" t="s">
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6" t="s">
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AD15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE15" s="8" t="n">
+      <c r="AE15" s="7" t="n">
         <v>0.030996</v>
       </c>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6" t="n">
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" s="6" t="n">
+      <c r="AK15" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6" t="n">
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6" t="n">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6" t="s">
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6" t="s">
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE16" s="8" t="n">
+      <c r="AE16" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6" t="n">
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK16" s="6" t="n">
+      <c r="AK16" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6" t="n">
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AD17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6" t="n">
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK17" s="6" t="n">
+      <c r="AK17" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="AL17" s="11" t="s">
+      <c r="AL17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AM17" s="6" t="n">
+      <c r="AM17" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="n">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="10" t="n">
+      <c r="N18" s="9" t="n">
         <v>5449000148056</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6" t="s">
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6" t="s">
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AD18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="8" t="n">
+      <c r="AE18" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6" t="n">
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK18" s="6" t="n">
+      <c r="AK18" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6" t="n">
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="n">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="12" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N19" s="10" t="n">
+      <c r="N19" s="9" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6" t="s">
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AD19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE19" s="8" t="n">
+      <c r="AE19" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6" t="n">
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK19" s="6" t="n">
+      <c r="AK19" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6" t="n">
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AD20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6" t="n">
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK20" s="6" t="n">
+      <c r="AK20" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="AL20" s="11" t="s">
+      <c r="AL20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AM20" s="6" t="n">
+      <c r="AM20" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="n">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6" t="s">
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6" t="s">
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AD21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE21" s="8" t="n">
+      <c r="AE21" s="7" t="n">
         <v>0.030997</v>
       </c>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6" t="n">
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK21" s="6" t="n">
+      <c r="AK21" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6" t="n">
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="n">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6" t="s">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6" t="s">
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6" t="s">
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AD22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" s="8" t="n">
+      <c r="AE22" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6" t="n">
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK22" s="6" t="n">
+      <c r="AK22" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6" t="n">
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="n">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="6" t="s">
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6" t="s">
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6" t="s">
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6" t="s">
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AD23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE23" s="8" t="n">
+      <c r="AE23" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6" t="n">
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK23" s="6" t="n">
+      <c r="AK23" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6" t="n">
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="n">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="N24" s="10" t="n">
+      <c r="N24" s="9" t="n">
         <v>5449000233615</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6" t="s">
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AD24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE24" s="8" t="n">
+      <c r="AE24" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6" t="n">
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK24" s="6" t="n">
+      <c r="AK24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6" t="n">
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="n">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="12" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6" t="s">
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6" t="s">
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AD25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE25" s="8" t="n">
+      <c r="AE25" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6" t="n">
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK25" s="6" t="n">
+      <c r="AK25" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6" t="n">
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AD26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6" t="n">
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK26" s="6" t="n">
+      <c r="AK26" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="AL26" s="11" t="s">
+      <c r="AL26" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AM26" s="6" t="n">
+      <c r="AM26" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="n">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N27" s="10" t="n">
+      <c r="N27" s="9" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6" t="s">
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6" t="s">
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6" t="s">
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6" t="s">
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AD27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE27" s="8" t="n">
+      <c r="AE27" s="7" t="n">
         <v>0.030996</v>
       </c>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6" t="n">
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK27" s="6" t="n">
+      <c r="AK27" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6" t="n">
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6" t="n">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6" t="s">
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6" t="s">
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6" t="s">
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6" t="s">
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD28" s="6" t="s">
+      <c r="AD28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE28" s="8" t="n">
+      <c r="AE28" s="7" t="n">
         <v>0.016909</v>
       </c>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6" t="n">
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK28" s="6" t="n">
+      <c r="AK28" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6" t="n">
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="n">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="N29" s="10" t="n">
+      <c r="N29" s="9" t="n">
         <v>4650075420980</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6" t="s">
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6" t="s">
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6" t="s">
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD29" s="6" t="s">
+      <c r="AD29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE29" s="8" t="n">
+      <c r="AE29" s="7" t="n">
         <v>0.008593</v>
       </c>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6" t="n">
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK29" s="6" t="n">
+      <c r="AK29" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6" t="n">
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="n">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6" t="s">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6" t="s">
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6" t="s">
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6" t="s">
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AD30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE30" s="8" t="n">
+      <c r="AE30" s="7" t="n">
         <v>0.00761</v>
       </c>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6" t="n">
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK30" s="6" t="n">
+      <c r="AK30" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6" t="n">
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6" t="n">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5" t="s">
         <v>142</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6" t="s">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6" t="s">
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6" t="s">
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AD31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE31" s="8" t="n">
+      <c r="AE31" s="7" t="n">
         <v>0.00755</v>
       </c>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6" t="n">
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK31" s="6" t="n">
+      <c r="AK31" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6" t="n">
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="6" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6" t="s">
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AD32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AE32" s="8" t="n">
+      <c r="AE32" s="7" t="n">
         <v>0.08</v>
       </c>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6" t="s">
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6" t="n">
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK32" s="6" t="n">
+      <c r="AK32" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AL32" s="11" t="s">
+      <c r="AL32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AM32" s="6" t="n">
+      <c r="AM32" s="5" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6" t="n">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6" t="s">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6" t="s">
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6" t="s">
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AD33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6" t="s">
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6" t="n">
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK33" s="6" t="n">
+      <c r="AK33" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6" t="n">
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6" t="n">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6" t="s">
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6" t="s">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6" t="s">
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AD34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6" t="n">
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK34" s="6" t="n">
+      <c r="AK34" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6" t="n">
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6" t="n">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6" t="s">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6" t="s">
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6" t="s">
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X35" s="6" t="s">
+      <c r="X35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6" t="s">
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AD35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE35" s="8" t="n">
+      <c r="AE35" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6" t="s">
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AI35" s="6" t="s">
+      <c r="AI35" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ35" s="6" t="n">
+      <c r="AJ35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK35" s="6" t="n">
+      <c r="AK35" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AL35" s="6"/>
+      <c r="AL35" s="5"/>
       <c r="AM35" s="15" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>165</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6" t="n">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6" t="s">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6" t="s">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6" t="s">
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AD36" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AE36" s="8" t="n">
+      <c r="AE36" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6" t="s">
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AI36" s="6" t="s">
+      <c r="AI36" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ36" s="6" t="n">
+      <c r="AJ36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK36" s="6" t="n">
+      <c r="AK36" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AL36" s="6"/>
+      <c r="AL36" s="5"/>
       <c r="AM36" s="15" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="n">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="6" t="n">
+      <c r="L37" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6" t="s">
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6" t="s">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6" t="s">
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD37" s="6" t="s">
+      <c r="AD37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE37" s="8" t="n">
+      <c r="AE37" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6" t="s">
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AI37" s="6" t="s">
+      <c r="AI37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ37" s="6" t="n">
+      <c r="AJ37" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK37" s="6" t="n">
+      <c r="AK37" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AL37" s="6"/>
+      <c r="AL37" s="5"/>
       <c r="AM37" s="15" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6" t="n">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N38" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="O38" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P38" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="R38" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6" t="s">
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X38" s="6" t="s">
+      <c r="X38" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6" t="s">
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AD38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE38" s="8" t="n">
+      <c r="AE38" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6" t="n">
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK38" s="6" t="n">
+      <c r="AK38" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6" t="n">
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6" t="n">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="R39" s="5" t="s">
         <v>158</v>
       </c>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6" t="s">
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X39" s="6" t="s">
+      <c r="X39" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6" t="s">
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AD39" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE39" s="8" t="n">
+      <c r="AE39" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6" t="n">
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK39" s="6" t="n">
+      <c r="AK39" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="6" t="n">
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6" t="n">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6" t="s">
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X40" s="6" t="s">
+      <c r="X40" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6" t="s">
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD40" s="6" t="s">
+      <c r="AD40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE40" s="8" t="n">
+      <c r="AE40" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6" t="n">
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK40" s="6" t="n">
+      <c r="AK40" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AL40" s="11" t="s">
+      <c r="AL40" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AM40" s="6" t="n">
+      <c r="AM40" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6" t="n">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
       <c r="M41" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="O41" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6" t="s">
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="R41" s="5" t="s">
         <v>69</v>
       </c>
       <c r="S41" s="16"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6" t="s">
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X41" s="6" t="s">
+      <c r="X41" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6" t="s">
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD41" s="6" t="s">
+      <c r="AD41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6" t="n">
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK41" s="6" t="n">
+      <c r="AK41" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="AL41" s="6"/>
-      <c r="AM41" s="6" t="n">
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6" t="n">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="6" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6" t="s">
+      <c r="N42" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="R42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6" t="s">
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="X42" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6" t="s">
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AD42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6" t="n">
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK42" s="6" t="n">
+      <c r="AK42" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6" t="n">
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>208</v>
+      <c r="D43" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL43" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL43" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
-        <v>41</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>179</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="H44" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="11" t="s">
+      <c r="I44" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6" t="n">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="AL44" s="6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM44" s="6"/>
+      <c r="AL44" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>208</v>
+      <c r="D45" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>189</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I45" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6" t="n">
+      <c r="I45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="AL45" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM45" s="6"/>
+      <c r="AL45" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AM45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>208</v>
+      <c r="D46" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="11" t="s">
+      <c r="I46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6" t="s">
+      <c r="N46" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL46" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL47" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM47" s="5"/>
+    </row>
+    <row r="48" s="25" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6" t="n">
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="AL48" s="5"/>
+      <c r="AT48" s="26"/>
+      <c r="AMJ48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
+        <v>401</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AL46" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
-        <v>44</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL47" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
-        <v>45</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL48" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
-        <v>401</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>208</v>
+      <c r="D49" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="6"/>
-      <c r="AK49" s="6" t="n">
+        <v>240</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5" t="n">
         <v>401</v>
       </c>
-      <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
-      <c r="AMJ49" s="0"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM48"/>
+  <autoFilter ref="A1:AM49"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E96CC4-C373-4FF3-A308-7B2ADB4EA672}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C5D3CC-19F5-499E-9175-8B0BF771411D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="265">
   <si>
     <t>Sorting</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -874,10 +871,16 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Cash Zone, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone, SS_Menu Board, SS_Cash Zone</t>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Cash Zone, SS_Cash Zone - Canteen</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1376,8 +1379,8 @@
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X38" sqref="X38:X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,7 +1732,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1738,7 +1741,7 @@
         <v>49</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="7">
         <v>4.1980000000000003E-2</v>
@@ -1775,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>54</v>
@@ -1790,10 +1793,10 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1812,7 +1815,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1821,7 +1824,7 @@
         <v>49</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE5" s="7">
         <v>4.1980000000000003E-2</v>
@@ -1858,10 +1861,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>54</v>
@@ -1873,10 +1876,10 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1895,7 +1898,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1904,7 +1907,7 @@
         <v>49</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE6" s="7">
         <v>4.1980000000000003E-2</v>
@@ -1941,10 +1944,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>54</v>
@@ -1956,10 +1959,10 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1978,7 +1981,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1987,7 +1990,7 @@
         <v>49</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE7" s="7">
         <v>4.1980000000000003E-2</v>
@@ -2024,10 +2027,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>54</v>
@@ -2039,10 +2042,10 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2061,7 +2064,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -2070,7 +2073,7 @@
         <v>49</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE8" s="7">
         <v>2.1700000000000001E-2</v>
@@ -2107,10 +2110,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>54</v>
@@ -2122,10 +2125,10 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2144,14 +2147,14 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE9" s="7">
         <v>2.1700000000000001E-2</v>
@@ -2188,10 +2191,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>54</v>
@@ -2203,10 +2206,10 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2225,7 +2228,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2234,7 +2237,7 @@
         <v>49</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE10" s="7">
         <v>2.1700000000000001E-2</v>
@@ -2268,13 +2271,13 @@
         <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>48</v>
@@ -2317,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="AL11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AM11" s="6">
         <v>300</v>
@@ -2337,13 +2340,13 @@
         <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>54</v>
@@ -2355,10 +2358,10 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2377,7 +2380,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2386,7 +2389,7 @@
         <v>49</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE12" s="7">
         <v>2.2499999999999999E-2</v>
@@ -2420,13 +2423,13 @@
         <v>41</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>54</v>
@@ -2438,10 +2441,10 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2460,7 +2463,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -2469,7 +2472,7 @@
         <v>49</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE13" s="7">
         <v>1.2696000000000001E-2</v>
@@ -2503,13 +2506,13 @@
         <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>48</v>
@@ -2552,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="AL14" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM14" s="6">
         <v>300</v>
@@ -2572,13 +2575,13 @@
         <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>54</v>
@@ -2590,7 +2593,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N15" s="6">
         <v>5449000131768</v>
@@ -2612,7 +2615,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
@@ -2621,7 +2624,7 @@
         <v>49</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE15" s="7">
         <v>1.2696000000000001E-2</v>
@@ -2655,13 +2658,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
@@ -2673,10 +2676,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -2695,14 +2698,14 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE16" s="7">
         <v>8.9999999999999993E-3</v>
@@ -2736,13 +2739,13 @@
         <v>41</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>48</v>
@@ -2785,7 +2788,7 @@
         <v>14</v>
       </c>
       <c r="AL17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AM17" s="6">
         <v>300</v>
@@ -2805,13 +2808,13 @@
         <v>41</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>54</v>
@@ -2823,10 +2826,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -2845,7 +2848,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -2854,7 +2857,7 @@
         <v>49</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE18" s="7">
         <v>2.2499999999999999E-2</v>
@@ -2888,13 +2891,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>54</v>
@@ -2906,7 +2909,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N19" s="6">
         <v>4607042430879</v>
@@ -2928,7 +2931,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -2937,7 +2940,7 @@
         <v>49</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE19" s="7">
         <v>1.2696000000000001E-2</v>
@@ -2971,13 +2974,13 @@
         <v>41</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>54</v>
@@ -2989,10 +2992,10 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3011,7 +3014,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -3020,7 +3023,7 @@
         <v>49</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="7">
         <v>1.2696000000000001E-2</v>
@@ -3054,13 +3057,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>54</v>
@@ -3072,7 +3075,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N21" s="6">
         <v>5449000233615</v>
@@ -3094,7 +3097,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
@@ -3103,7 +3106,7 @@
         <v>49</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE21" s="7">
         <v>8.9999999999999993E-3</v>
@@ -3137,13 +3140,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>48</v>
@@ -3186,7 +3189,7 @@
         <v>20</v>
       </c>
       <c r="AL22" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM22" s="6">
         <v>300</v>
@@ -3206,13 +3209,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>54</v>
@@ -3224,10 +3227,10 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -3246,7 +3249,7 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
@@ -3255,7 +3258,7 @@
         <v>49</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE23" s="7">
         <v>2.2499999999999999E-2</v>
@@ -3289,13 +3292,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>54</v>
@@ -3307,10 +3310,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -3329,7 +3332,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
@@ -3338,7 +3341,7 @@
         <v>49</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE24" s="7">
         <v>1.2696000000000001E-2</v>
@@ -3372,13 +3375,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>54</v>
@@ -3390,10 +3393,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -3412,14 +3415,14 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE25" s="7">
         <v>8.9999999999999993E-3</v>
@@ -3453,13 +3456,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>54</v>
@@ -3471,10 +3474,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -3493,7 +3496,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
@@ -3502,7 +3505,7 @@
         <v>49</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE26" s="7">
         <v>8.9999999999999993E-3</v>
@@ -3537,10 +3540,10 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>41</v>
@@ -3579,7 +3582,7 @@
         <v>310</v>
       </c>
       <c r="AL27" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM27" s="6"/>
     </row>
@@ -3598,10 +3601,10 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>41</v>
@@ -3660,16 +3663,16 @@
         <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -3680,7 +3683,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -3697,7 +3700,7 @@
         <v>49</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE29" s="7">
         <v>0.08</v>
@@ -3705,7 +3708,7 @@
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6">
@@ -3715,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="AL29" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM29" s="6">
         <v>311</v>
@@ -3735,16 +3738,16 @@
         <v>41</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6">
@@ -3753,23 +3756,23 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
@@ -3780,13 +3783,13 @@
         <v>49</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6">
@@ -3814,16 +3817,16 @@
         <v>41</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6">
@@ -3832,23 +3835,23 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
@@ -3859,7 +3862,7 @@
         <v>49</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="6"/>
@@ -3892,10 +3895,10 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>41</v>
@@ -3934,7 +3937,7 @@
         <v>312</v>
       </c>
       <c r="AL32" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM32" s="6">
         <v>310</v>
@@ -3954,16 +3957,16 @@
         <v>41</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6">
@@ -3973,13 +3976,13 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -3989,7 +3992,7 @@
         <v>59</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
@@ -3999,7 +4002,7 @@
         <v>49</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE33" s="7">
         <v>0.04</v>
@@ -4007,10 +4010,10 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI33" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ33" s="6">
         <v>2</v>
@@ -4037,16 +4040,16 @@
         <v>41</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6">
@@ -4055,23 +4058,23 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
@@ -4082,7 +4085,7 @@
         <v>49</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE34" s="7">
         <v>0.04</v>
@@ -4090,10 +4093,10 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI34" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ34" s="6">
         <v>2</v>
@@ -4120,16 +4123,16 @@
         <v>41</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -4140,23 +4143,23 @@
         <v>15</v>
       </c>
       <c r="M35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
@@ -4167,7 +4170,7 @@
         <v>49</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE35" s="7">
         <v>0.04</v>
@@ -4175,10 +4178,10 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ35" s="6">
         <v>2</v>
@@ -4206,10 +4209,10 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>41</v>
@@ -4248,7 +4251,7 @@
         <v>400</v>
       </c>
       <c r="AL36" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM36" s="6"/>
     </row>
@@ -4266,13 +4269,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -4284,10 +4287,10 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -4295,17 +4298,17 @@
         <v>57</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -4315,7 +4318,7 @@
         <v>49</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE37" s="7">
         <v>0.05</v>
@@ -4349,16 +4352,16 @@
         <v>41</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6">
@@ -4371,7 +4374,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -4379,10 +4382,10 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -4392,7 +4395,7 @@
         <v>49</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE38" s="7">
         <v>0.28000000000000003</v>
@@ -4408,7 +4411,7 @@
         <v>34</v>
       </c>
       <c r="AL38" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM38" s="6">
         <v>400</v>
@@ -4428,13 +4431,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -4446,13 +4449,13 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="N39" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="O39" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6" t="s">
@@ -4466,10 +4469,10 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -4479,7 +4482,7 @@
         <v>49</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="6"/>
@@ -4511,13 +4514,13 @@
         <v>41</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>54</v>
@@ -4529,10 +4532,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N40" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -4547,10 +4550,10 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
@@ -4560,13 +4563,13 @@
         <v>49</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6">
@@ -4594,16 +4597,16 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="H41" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6">
@@ -4616,7 +4619,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -4624,10 +4627,10 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
@@ -4635,7 +4638,7 @@
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE41" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4651,7 +4654,7 @@
         <v>680</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM41" s="6">
         <v>400</v>
@@ -4671,16 +4674,16 @@
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6">
@@ -4693,7 +4696,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -4701,10 +4704,10 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -4714,7 +4717,7 @@
         <v>49</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="6"/>
@@ -4728,7 +4731,7 @@
         <v>72</v>
       </c>
       <c r="AL42" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM42" s="6">
         <v>680</v>
@@ -4748,13 +4751,13 @@
         <v>41</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -4766,32 +4769,32 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X43" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -4801,7 +4804,7 @@
         <v>49</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE43" s="7"/>
       <c r="AF43" s="6"/>
@@ -4833,13 +4836,13 @@
         <v>41</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -4851,10 +4854,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -4869,10 +4872,10 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -4882,7 +4885,7 @@
         <v>49</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="6"/>
@@ -4914,16 +4917,16 @@
         <v>41</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="H45" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6">
@@ -4936,7 +4939,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -4944,10 +4947,10 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X45" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -4957,7 +4960,7 @@
         <v>49</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="6"/>
@@ -4971,7 +4974,7 @@
         <v>769</v>
       </c>
       <c r="AL45" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM45" s="6">
         <v>680</v>
@@ -4991,13 +4994,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>54</v>
@@ -5009,32 +5012,32 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
@@ -5044,7 +5047,7 @@
         <v>49</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="6"/>
@@ -5076,13 +5079,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F47" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>54</v>
@@ -5094,10 +5097,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N47" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5112,10 +5115,10 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
@@ -5125,13 +5128,13 @@
         <v>49</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6">
@@ -5156,22 +5159,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -5182,7 +5185,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -5206,7 +5209,7 @@
         <v>37</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM48" s="6"/>
     </row>
@@ -5221,35 +5224,35 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -5288,35 +5291,35 @@
         <v>40</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="H50" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -5355,37 +5358,37 @@
         <v>40</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H51" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N51" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -5424,37 +5427,37 @@
         <v>40</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="H52" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -5478,7 +5481,7 @@
         <v>42</v>
       </c>
       <c r="AL52" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM52" s="6"/>
     </row>
@@ -5493,42 +5496,42 @@
         <v>40</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="I53" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
@@ -5560,20 +5563,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -5584,7 +5587,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C5D3CC-19F5-499E-9175-8B0BF771411D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E93BFD-C7FD-45BB-A715-067621C77CD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AM$1</definedName>
+    <definedName name="_" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QSR!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="272">
   <si>
     <t>Sorting</t>
   </si>
@@ -881,6 +881,27 @@
   </si>
   <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
 </sst>
 </file>
@@ -891,7 +912,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -914,16 +935,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -946,12 +980,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,6 +1041,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,59 +1431,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ54"/>
+  <dimension ref="A1:AML54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X38" sqref="X38:X47"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="9"/>
-    <col min="2" max="2" width="19.5546875" style="9"/>
-    <col min="3" max="3" width="18.6640625" style="9"/>
-    <col min="4" max="4" width="19.33203125" style="9"/>
-    <col min="5" max="5" width="18.6640625" style="9"/>
-    <col min="6" max="6" width="84.109375" style="9"/>
-    <col min="7" max="7" width="86.21875" style="9"/>
-    <col min="8" max="8" width="47.5546875" style="9"/>
-    <col min="9" max="9" width="25.44140625" style="9"/>
-    <col min="10" max="10" width="16.33203125" style="9"/>
-    <col min="11" max="11" width="21.5546875" style="9"/>
-    <col min="12" max="12" width="22.44140625" style="9"/>
-    <col min="13" max="14" width="33.88671875" style="9"/>
-    <col min="15" max="15" width="30.33203125" style="9"/>
-    <col min="16" max="16" width="21.5546875" style="9"/>
-    <col min="17" max="17" width="29.33203125" style="9"/>
-    <col min="18" max="18" width="15.21875" style="9"/>
-    <col min="19" max="19" width="13.44140625" style="9"/>
-    <col min="20" max="20" width="23" style="9"/>
-    <col min="21" max="21" width="28.109375" style="9"/>
-    <col min="22" max="22" width="34.6640625" style="9"/>
-    <col min="23" max="23" width="33.88671875" style="9"/>
-    <col min="24" max="24" width="31.21875" style="9"/>
-    <col min="25" max="25" width="31.77734375" style="9"/>
-    <col min="26" max="26" width="38.6640625" style="9"/>
-    <col min="27" max="27" width="39.33203125" style="9"/>
-    <col min="28" max="28" width="25.44140625" style="9"/>
-    <col min="29" max="29" width="22.88671875" style="9"/>
-    <col min="30" max="30" width="22.6640625" style="9"/>
-    <col min="31" max="31" width="22" style="13"/>
-    <col min="32" max="32" width="20.88671875" style="9"/>
-    <col min="33" max="33" width="22" style="9"/>
-    <col min="34" max="34" width="71.77734375" style="9"/>
-    <col min="35" max="35" width="25.33203125" style="9"/>
-    <col min="36" max="36" width="13.5546875" style="9"/>
-    <col min="37" max="37" width="15.88671875" style="9"/>
-    <col min="38" max="38" width="23.21875" style="14"/>
-    <col min="39" max="39" width="16.33203125" style="9"/>
-    <col min="40" max="1023" width="9.21875" style="9"/>
-    <col min="1024" max="1025" width="9.21875" style="5"/>
-    <col min="1026" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="16.42578125" style="9"/>
+    <col min="2" max="2" width="19.5703125" style="9"/>
+    <col min="3" max="3" width="18.7109375" style="9"/>
+    <col min="4" max="4" width="19.28515625" style="9"/>
+    <col min="5" max="5" width="18.7109375" style="9"/>
+    <col min="6" max="6" width="84.140625" style="9"/>
+    <col min="7" max="7" width="86.28515625" style="9"/>
+    <col min="8" max="8" width="47.5703125" style="9"/>
+    <col min="9" max="9" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="9"/>
+    <col min="12" max="12" width="16.28515625" style="9"/>
+    <col min="13" max="13" width="21.5703125" style="9"/>
+    <col min="14" max="14" width="22.42578125" style="9"/>
+    <col min="15" max="16" width="33.85546875" style="9"/>
+    <col min="17" max="17" width="30.28515625" style="9"/>
+    <col min="18" max="18" width="21.5703125" style="9"/>
+    <col min="19" max="19" width="29.28515625" style="9"/>
+    <col min="20" max="20" width="15.28515625" style="9"/>
+    <col min="21" max="21" width="13.42578125" style="9"/>
+    <col min="22" max="22" width="23" style="9"/>
+    <col min="23" max="23" width="28.140625" style="9"/>
+    <col min="24" max="24" width="34.7109375" style="9"/>
+    <col min="25" max="25" width="33.85546875" style="9"/>
+    <col min="26" max="26" width="31.28515625" style="9"/>
+    <col min="27" max="27" width="36.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.7109375" style="9"/>
+    <col min="29" max="29" width="39.28515625" style="9"/>
+    <col min="30" max="30" width="25.42578125" style="9"/>
+    <col min="31" max="31" width="22.85546875" style="9"/>
+    <col min="32" max="32" width="22.7109375" style="9"/>
+    <col min="33" max="33" width="22" style="13"/>
+    <col min="34" max="34" width="20.85546875" style="9"/>
+    <col min="35" max="35" width="22" style="9"/>
+    <col min="36" max="36" width="71.7109375" style="9"/>
+    <col min="37" max="37" width="25.28515625" style="9"/>
+    <col min="38" max="38" width="13.5703125" style="9"/>
+    <col min="39" max="39" width="15.85546875" style="9"/>
+    <col min="40" max="40" width="23.28515625" style="14"/>
+    <col min="41" max="41" width="16.28515625" style="9"/>
+    <col min="42" max="1025" width="9.28515625" style="9"/>
+    <col min="1026" max="1027" width="9.28515625" style="5"/>
+    <col min="1028" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41 1026:1026" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,102 +1510,108 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AMJ1" s="5"/>
+      <c r="AML1" s="5"/>
     </row>
-    <row r="2" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1593,23 +1656,25 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
+      <c r="AG2" s="7"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6">
         <v>1</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AM2" s="6">
         <v>300</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1634,8 +1699,12 @@
       <c r="H3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>267</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1654,31 +1723,33 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="AG3" s="7"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6">
         <v>2</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AM3" s="6">
         <v>1</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1704,64 +1775,66 @@
         <v>54</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6">
         <v>3</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AM4" s="6">
         <v>2</v>
       </c>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="6">
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1787,64 +1860,66 @@
         <v>54</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AG5" s="7">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6">
         <v>3</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AM5" s="6">
         <v>3</v>
       </c>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="6">
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1870,64 +1945,66 @@
         <v>54</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6">
         <v>3</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AM6" s="6">
         <v>4</v>
       </c>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="6">
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1953,64 +2030,66 @@
         <v>54</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AF7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AG7" s="7">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6">
         <v>3</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AM7" s="6">
         <v>5</v>
       </c>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="6">
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2036,64 +2115,66 @@
         <v>54</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6">
         <v>3</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AM8" s="6">
         <v>606</v>
       </c>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="6">
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2119,62 +2200,64 @@
         <v>54</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AG9" s="7">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6">
         <v>3</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AM9" s="6">
         <v>603</v>
       </c>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="6">
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2200,64 +2283,66 @@
         <v>54</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="6" t="s">
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AF10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AG10" s="7">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6">
         <v>3</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AM10" s="6">
         <v>607</v>
       </c>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="6">
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -2282,8 +2367,12 @@
       <c r="H11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>268</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -2302,31 +2391,33 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="6" t="s">
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AF11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="AG11" s="7"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6">
         <v>2</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AM11" s="6">
         <v>8</v>
       </c>
-      <c r="AL11" s="8" t="s">
+      <c r="AN11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AO11" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>13</v>
       </c>
@@ -2352,64 +2443,66 @@
         <v>54</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6">
         <v>3</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AM12" s="6">
         <v>9</v>
       </c>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="6">
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>14</v>
       </c>
@@ -2435,64 +2528,66 @@
         <v>54</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6" t="s">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="6" t="s">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AG13" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6">
         <v>3</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AM13" s="6">
         <v>10</v>
       </c>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="6">
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>15</v>
       </c>
@@ -2517,8 +2612,12 @@
       <c r="H14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2537,31 +2636,33 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="6" t="s">
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AF14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
+      <c r="AG14" s="7"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6">
         <v>2</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AM14" s="6">
         <v>11</v>
       </c>
-      <c r="AL14" s="8" t="s">
+      <c r="AN14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AO14" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>16</v>
       </c>
@@ -2587,64 +2688,66 @@
         <v>54</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="6">
+      <c r="P15" s="6">
         <v>5449000131768</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
-      <c r="AC15" s="6" t="s">
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AF15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AG15" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6">
         <v>3</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AM15" s="6">
         <v>12</v>
       </c>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="6">
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41 1026:1026" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>17</v>
       </c>
@@ -2670,62 +2773,64 @@
         <v>54</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AG16" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="6">
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6">
         <v>3</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AM16" s="6">
         <v>62</v>
       </c>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="6">
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2750,8 +2855,12 @@
       <c r="H17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>270</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -2770,31 +2879,33 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
-      <c r="AC17" s="6" t="s">
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AF17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
+      <c r="AG17" s="7"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="6">
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6">
         <v>2</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AM17" s="6">
         <v>14</v>
       </c>
-      <c r="AL17" s="8" t="s">
+      <c r="AN17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AO17" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2820,64 +2931,66 @@
         <v>54</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
-      <c r="AC18" s="6" t="s">
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AF18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AG18" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6">
         <v>3</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AM18" s="6">
         <v>17</v>
       </c>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="6">
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2903,64 +3016,66 @@
         <v>54</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="6">
+      <c r="P19" s="6">
         <v>4607042430879</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="6" t="s">
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AG19" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6">
         <v>3</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AM19" s="6">
         <v>215</v>
       </c>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="6">
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2986,64 +3101,66 @@
         <v>54</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="6" t="s">
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AF20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AG20" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
-      <c r="AJ20" s="6">
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6">
         <v>3</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AM20" s="6">
         <v>216</v>
       </c>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="6">
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>23</v>
       </c>
@@ -3069,64 +3186,66 @@
         <v>54</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <v>5449000233615</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
-      <c r="AC21" s="6" t="s">
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AF21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AG21" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6">
         <v>3</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AM21" s="6">
         <v>18</v>
       </c>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="6">
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>27</v>
       </c>
@@ -3151,8 +3270,12 @@
       <c r="H22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>271</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -3171,31 +3294,33 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="6" t="s">
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AF22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
+      <c r="AG22" s="7"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="6">
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6">
         <v>2</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AM22" s="6">
         <v>20</v>
       </c>
-      <c r="AL22" s="8" t="s">
+      <c r="AN22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AM22" s="6">
+      <c r="AO22" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>28</v>
       </c>
@@ -3221,64 +3346,66 @@
         <v>54</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="6">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="T23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="6" t="s">
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6" t="s">
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="6" t="s">
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE23" s="7">
+      <c r="AG23" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="6">
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6">
         <v>3</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AM23" s="6">
         <v>222</v>
       </c>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="6">
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>29</v>
       </c>
@@ -3304,64 +3431,66 @@
         <v>54</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="6" t="s">
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AF24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AG24" s="7">
         <v>1.2696000000000001E-2</v>
       </c>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-      <c r="AJ24" s="6">
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6">
         <v>3</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AM24" s="6">
         <v>221</v>
       </c>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="6">
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>30</v>
       </c>
@@ -3387,62 +3516,64 @@
         <v>54</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="6" t="s">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AG25" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
-      <c r="AJ25" s="6">
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6">
         <v>3</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AM25" s="6">
         <v>168</v>
       </c>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="6">
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>31</v>
       </c>
@@ -3468,64 +3599,66 @@
         <v>54</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="s">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="6" t="s">
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AG26" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
-      <c r="AJ26" s="6">
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6">
         <v>3</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AM26" s="6">
         <v>223</v>
       </c>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="6">
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>37</v>
       </c>
@@ -3570,23 +3703,25 @@
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="7"/>
+      <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
+      <c r="AG27" s="7"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
-      <c r="AJ27" s="6">
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6">
         <v>1</v>
       </c>
-      <c r="AK27" s="6">
+      <c r="AM27" s="6">
         <v>310</v>
       </c>
-      <c r="AL27" s="8" t="s">
+      <c r="AN27" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AM27" s="6"/>
+      <c r="AO27" s="6"/>
     </row>
-    <row r="28" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>38</v>
       </c>
@@ -3631,25 +3766,27 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="7"/>
+      <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
+      <c r="AG28" s="7"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-      <c r="AJ28" s="6">
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6">
         <v>1</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AM28" s="6">
         <v>311</v>
       </c>
-      <c r="AL28" s="10">
+      <c r="AN28" s="10">
         <v>26</v>
       </c>
-      <c r="AM28" s="6">
+      <c r="AO28" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>39</v>
       </c>
@@ -3682,11 +3819,11 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -3696,35 +3833,37 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="6" t="s">
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD29" s="6" t="s">
+      <c r="AF29" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AE29" s="7">
+      <c r="AG29" s="7">
         <v>0.08</v>
       </c>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6" t="s">
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6">
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6">
         <v>2</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AM29" s="6">
         <v>26</v>
       </c>
-      <c r="AL29" s="8" t="s">
+      <c r="AN29" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AM29" s="6">
+      <c r="AO29" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>40</v>
       </c>
@@ -3750,60 +3889,62 @@
         <v>153</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="6">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="6" t="s">
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
-      <c r="AC30" s="6" t="s">
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AF30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6" t="s">
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6">
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6">
         <v>3</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AM30" s="6">
         <v>27</v>
       </c>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="6">
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>41</v>
       </c>
@@ -3829,58 +3970,60 @@
         <v>161</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
         <v>0.01</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="6" t="s">
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="6" t="s">
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
+      <c r="AG31" s="7"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
-      <c r="AJ31" s="6">
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6">
         <v>3</v>
       </c>
-      <c r="AK31" s="6">
+      <c r="AM31" s="6">
         <v>28</v>
       </c>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="6">
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>42</v>
       </c>
@@ -3925,25 +4068,27 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
+      <c r="AG32" s="7"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
-      <c r="AJ32" s="6">
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6">
         <v>1</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AM32" s="6">
         <v>312</v>
       </c>
-      <c r="AL32" s="8" t="s">
+      <c r="AN32" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="AM32" s="6">
+      <c r="AO32" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43</v>
       </c>
@@ -3969,64 +4114,66 @@
         <v>169</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="6" t="s">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="6" t="s">
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="X33" s="6" t="s">
+      <c r="Z33" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="6" t="s">
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AF33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AG33" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6" t="s">
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AI33" s="6" t="s">
+      <c r="AK33" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AJ33" s="6">
+      <c r="AL33" s="6">
         <v>2</v>
       </c>
-      <c r="AK33" s="6">
+      <c r="AM33" s="6">
         <v>29</v>
       </c>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="6">
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>44</v>
       </c>
@@ -4052,64 +4199,66 @@
         <v>175</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="6">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6" t="s">
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="6" t="s">
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="6" t="s">
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AF34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AG34" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6" t="s">
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AI34" s="6" t="s">
+      <c r="AK34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AJ34" s="6">
+      <c r="AL34" s="6">
         <v>2</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AM34" s="6">
         <v>30</v>
       </c>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="6">
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45</v>
       </c>
@@ -4136,65 +4285,67 @@
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6">
         <v>1</v>
       </c>
-      <c r="L35" s="6">
+      <c r="N35" s="6">
         <v>15</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="O35" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="P35" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="6" t="s">
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="6" t="s">
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AG35" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6" t="s">
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AI35" s="6" t="s">
+      <c r="AK35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AJ35" s="6">
+      <c r="AL35" s="6">
         <v>2</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AM35" s="6">
         <v>31</v>
       </c>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="6">
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>46</v>
       </c>
@@ -4239,23 +4390,25 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
-      <c r="AE36" s="7"/>
+      <c r="AE36" s="6"/>
       <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
+      <c r="AG36" s="7"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="6">
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6">
         <v>1</v>
       </c>
-      <c r="AK36" s="6">
+      <c r="AM36" s="6">
         <v>400</v>
       </c>
-      <c r="AL36" s="8" t="s">
+      <c r="AN36" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AM36" s="6"/>
+      <c r="AO36" s="6"/>
     </row>
-    <row r="37" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>48</v>
       </c>
@@ -4281,64 +4434,66 @@
         <v>54</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="6">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="P37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="T37" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
-      <c r="W37" s="6" t="s">
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X37" s="6" t="s">
+      <c r="Z37" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="6" t="s">
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD37" s="6" t="s">
+      <c r="AF37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE37" s="7">
+      <c r="AG37" s="7">
         <v>0.05</v>
       </c>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
-      <c r="AJ37" s="6">
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6">
         <v>2</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AM37" s="6">
         <v>33</v>
       </c>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="6">
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>49</v>
       </c>
@@ -4363,61 +4518,63 @@
       <c r="H38" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="6" t="s">
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X38" s="6" t="s">
+      <c r="Z38" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="6" t="s">
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AF38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE38" s="7">
+      <c r="AG38" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
-      <c r="AJ38" s="6">
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6">
         <v>2</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AM38" s="6">
         <v>34</v>
       </c>
-      <c r="AL38" s="8" t="s">
+      <c r="AN38" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AM38" s="6">
+      <c r="AO38" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>50</v>
       </c>
@@ -4443,64 +4600,66 @@
         <v>54</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="6">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="P39" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="Q39" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
+      <c r="R39" s="6"/>
+      <c r="S39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="T39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="6" t="s">
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X39" s="6" t="s">
+      <c r="Z39" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
-      <c r="AC39" s="6" t="s">
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
+      <c r="AG39" s="7"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="6">
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6">
         <v>3</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AM39" s="6">
         <v>35</v>
       </c>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="6">
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>51</v>
       </c>
@@ -4525,65 +4684,67 @@
       <c r="H40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="P40" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="T40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="6" t="s">
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X40" s="6" t="s">
+      <c r="Z40" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="6" t="s">
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD40" s="6" t="s">
+      <c r="AF40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6" t="s">
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6">
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6">
         <v>3</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AM40" s="6">
         <v>36</v>
       </c>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="6">
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>52</v>
       </c>
@@ -4608,59 +4769,61 @@
       <c r="H41" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="6" t="s">
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="6" t="s">
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X41" s="6" t="s">
+      <c r="Z41" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="6" t="s">
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE41" s="7">
+      <c r="AG41" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
-      <c r="AJ41" s="6">
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6">
         <v>2</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AM41" s="6">
         <v>680</v>
       </c>
-      <c r="AL41" s="8" t="s">
+      <c r="AN41" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="AM41" s="6">
+      <c r="AO41" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>53</v>
       </c>
@@ -4686,58 +4849,60 @@
         <v>209</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="6">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
         <v>2</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="6" t="s">
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="6" t="s">
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="Z42" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
-      <c r="AC42" s="6" t="s">
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AF42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
+      <c r="AG42" s="7"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="6">
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6">
         <v>3</v>
       </c>
-      <c r="AK42" s="6">
+      <c r="AM42" s="6">
         <v>72</v>
       </c>
-      <c r="AL42" s="8" t="s">
+      <c r="AN42" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AM42" s="6">
+      <c r="AO42" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>54</v>
       </c>
@@ -4763,66 +4928,68 @@
         <v>54</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="6">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>213</v>
       </c>
       <c r="Q43" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="S43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="T43" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6" t="s">
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X43" s="6" t="s">
+      <c r="Z43" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
-      <c r="AC43" s="6" t="s">
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD43" s="6" t="s">
+      <c r="AF43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
+      <c r="AG43" s="7"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
-      <c r="AJ43" s="6">
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6">
         <v>4</v>
       </c>
-      <c r="AK43" s="6">
+      <c r="AM43" s="6">
         <v>73</v>
       </c>
-      <c r="AL43" s="10"/>
-      <c r="AM43" s="6">
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>55</v>
       </c>
@@ -4848,62 +5015,64 @@
         <v>54</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="6">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="P44" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6" t="s">
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="6" t="s">
+      <c r="T44" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="6" t="s">
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X44" s="6" t="s">
+      <c r="Z44" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
-      <c r="AC44" s="6" t="s">
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD44" s="6" t="s">
+      <c r="AF44" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
+      <c r="AG44" s="7"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
-      <c r="AJ44" s="6">
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6">
         <v>4</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AM44" s="6">
         <v>74</v>
       </c>
-      <c r="AL44" s="10"/>
-      <c r="AM44" s="6">
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>56</v>
       </c>
@@ -4929,58 +5098,60 @@
         <v>209</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="6">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6" t="s">
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X45" s="6" t="s">
+      <c r="Z45" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
-      <c r="AC45" s="6" t="s">
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD45" s="6" t="s">
+      <c r="AF45" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
+      <c r="AG45" s="7"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
-      <c r="AJ45" s="6">
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6">
         <v>3</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AM45" s="6">
         <v>769</v>
       </c>
-      <c r="AL45" s="8" t="s">
+      <c r="AN45" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="AM45" s="6">
+      <c r="AO45" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>57</v>
       </c>
@@ -5006,66 +5177,68 @@
         <v>54</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>224</v>
       </c>
       <c r="Q46" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="S46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="6" t="s">
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X46" s="6" t="s">
+      <c r="Z46" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
-      <c r="AC46" s="6" t="s">
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD46" s="6" t="s">
+      <c r="AF46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
+      <c r="AG46" s="7"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
-      <c r="AJ46" s="6">
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6">
         <v>4</v>
       </c>
-      <c r="AK46" s="6">
+      <c r="AM46" s="6">
         <v>770</v>
       </c>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="6">
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>58</v>
       </c>
@@ -5090,65 +5263,67 @@
       <c r="H47" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6">
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="P47" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R47" s="6" t="s">
+      <c r="T47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
-      <c r="W47" s="6" t="s">
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X47" s="6" t="s">
+      <c r="Z47" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
-      <c r="AC47" s="6" t="s">
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD47" s="6" t="s">
+      <c r="AF47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6" t="s">
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6">
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6">
         <v>4</v>
       </c>
-      <c r="AK47" s="6">
+      <c r="AM47" s="6">
         <v>771</v>
       </c>
-      <c r="AL47" s="10"/>
-      <c r="AM47" s="6">
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>59</v>
       </c>
@@ -5173,22 +5348,22 @@
       <c r="H48" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
-      <c r="R48" s="6" t="s">
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
@@ -5199,21 +5374,23 @@
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
+      <c r="AG48" s="7"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
-      <c r="AK48" s="6">
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6">
         <v>37</v>
       </c>
-      <c r="AL48" s="8" t="s">
+      <c r="AN48" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="AM48" s="6"/>
+      <c r="AO48" s="6"/>
     </row>
-    <row r="49" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>60</v>
       </c>
@@ -5238,24 +5415,24 @@
       <c r="H49" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6" t="s">
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -5266,21 +5443,23 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
+      <c r="AG49" s="7"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="6">
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6">
         <v>38</v>
       </c>
-      <c r="AL49" s="10">
+      <c r="AN49" s="10">
         <v>32</v>
       </c>
-      <c r="AM49" s="6"/>
+      <c r="AO49" s="6"/>
     </row>
-    <row r="50" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>61</v>
       </c>
@@ -5305,24 +5484,24 @@
       <c r="H50" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="12" t="s">
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6" t="s">
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -5333,21 +5512,23 @@
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="7"/>
+      <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
+      <c r="AG50" s="7"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
-      <c r="AK50" s="6">
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6">
         <v>39</v>
       </c>
-      <c r="AL50" s="10">
+      <c r="AN50" s="10">
         <v>33</v>
       </c>
-      <c r="AM50" s="6"/>
+      <c r="AO50" s="6"/>
     </row>
-    <row r="51" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>62</v>
       </c>
@@ -5372,26 +5553,26 @@
       <c r="H51" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="P51" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6" t="s">
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
@@ -5402,21 +5583,23 @@
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="7"/>
+      <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
+      <c r="AG51" s="7"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
-      <c r="AK51" s="6">
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6">
         <v>40</v>
       </c>
-      <c r="AL51" s="10">
+      <c r="AN51" s="10">
         <v>34</v>
       </c>
-      <c r="AM51" s="6"/>
+      <c r="AO51" s="6"/>
     </row>
-    <row r="52" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>63</v>
       </c>
@@ -5441,26 +5624,26 @@
       <c r="H52" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="P52" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="6" t="s">
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
@@ -5471,21 +5654,23 @@
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="7"/>
+      <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
+      <c r="AG52" s="7"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
-      <c r="AK52" s="6">
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6">
         <v>42</v>
       </c>
-      <c r="AL52" s="8" t="s">
+      <c r="AN52" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="AM52" s="6"/>
+      <c r="AO52" s="6"/>
     </row>
-    <row r="53" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>64</v>
       </c>
@@ -5510,49 +5695,51 @@
       <c r="H53" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="6" t="s">
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
-      <c r="R53" s="6" t="s">
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="6" t="s">
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="7"/>
+      <c r="AE53" s="6"/>
       <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
+      <c r="AG53" s="7"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="6">
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6">
         <v>43</v>
       </c>
-      <c r="AL53" s="10"/>
-      <c r="AM53" s="6"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="6"/>
     </row>
-    <row r="54" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>65</v>
       </c>
@@ -5575,22 +5762,22 @@
       <c r="H54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="6" t="s">
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
@@ -5601,20 +5788,22 @@
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
-      <c r="AE54" s="7"/>
+      <c r="AE54" s="6"/>
       <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
+      <c r="AG54" s="7"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
-      <c r="AK54" s="6">
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6">
         <v>401</v>
       </c>
-      <c r="AL54" s="10"/>
-      <c r="AM54" s="6"/>
+      <c r="AN54" s="10"/>
+      <c r="AO54" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC QSR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51537D66-97CA-416C-B1D8-FA7D28417493}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E3416-27B7-4959-A77F-B221FC4A3BB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">QSR!$A$1:$AO$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="272">
   <si>
     <t>Sorting</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Combo1; Combo2; Combo3; Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1358,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="V1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AA41" sqref="AA41"/>
+      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40:Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4543,7 +4546,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -4624,7 +4627,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -4701,7 +4704,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -4778,7 +4781,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -4865,7 +4868,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -4946,7 +4949,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -5021,7 +5024,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -5108,7 +5111,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -5189,7 +5192,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
